--- a/Menu list.xlsx
+++ b/Menu list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heiway-my.sharepoint.com/personal/oyedeo02_heiway_net/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web-projects\pembina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCADD8A-77B5-4D96-9982-17259FC7CAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9603CED8-F3E1-46BA-830A-EBAD75F86597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC2412F5-DE1A-47AA-8AD0-D20EB857F9E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CC2412F5-DE1A-47AA-8AD0-D20EB857F9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
@@ -565,23 +565,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDD21F5-58EA-4BBF-8D11-9C54E1C5A58C}">
   <dimension ref="C4:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
@@ -605,13 +605,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,7 +639,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,7 +693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
@@ -717,7 +717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,7 +731,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
@@ -759,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
@@ -787,7 +787,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
@@ -815,7 +815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
@@ -829,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>30</v>
       </c>
@@ -843,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -857,7 +857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
@@ -867,19 +867,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
@@ -897,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
@@ -907,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
@@ -917,7 +917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>39</v>
       </c>
@@ -927,7 +927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>40</v>
       </c>
@@ -937,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
@@ -967,19 +967,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>44</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>45</v>
       </c>
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>49</v>
       </c>
